--- a/medicine/Enfance/Victor_Dixen/Victor_Dixen.xlsx
+++ b/medicine/Enfance/Victor_Dixen/Victor_Dixen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Victor Dixen né en 1979, est un écrivain français. Il est l'auteur de  plusieurs séries littéraires pour la jeunesse dont Phobos, Animale, Le Cas Jack Spark et Vampyria ainsi que de plusieurs romans indépendants.
 </t>
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance
-Victor Dixen est né d'un père danois et d’une mère française. Il vit, en compagnie de ses parents et de sa sœur, une jeunesse de globe-trotter, avant d'atterrir finalement à Rørvig, au bord de la mer Cattégat, dans le Danemark septentrional. Victor Dixen découvre alors les auteurs scandinaves, dont Hans Christian Andersen et Tove Jansson. Enfant, il connaît une expérience extrême au Tivoli, le parc d'attractions de Copenhague : s’embarquant subrepticement sur les montagnes russes, il effectue le tour complet à quatorze reprises. Sujet à d’étranges insomnies depuis cet incident, il consacre l'essentiel de ses nuits à l'écriture[1],[2]. 
-Débuts
-Il commence à écrire des livres destiné aux adolescents et aux adultes à partir de 2009. 
-Il s'exprime en 2016 dans une interview à France Culture, portant sur le succès des romans adolescents[3] : « Beaucoup d'auteurs passent du roman adulte au roman jeune adulte parce qu'ils retrouvent une forme de liberté. Le problème avec la littérature française c'est qu'elle est tellement obsédée par le style qu'elle en oublie l'histoire. Les jeunes ont besoin d'être emportés par une histoire et des personnages dès la première page et jusqu'à la fin d'un livre. »
-Victor Dixen a remporté deux fois le grand prix de l'Imaginaire, catégorie « jeunesse francophone » : en 2010 pour le premier tome de la tétralogie Le Cas Jack Spark, et en 2014 pour le premier tome de la série Animale[2].
+          <t>Enfance</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Victor Dixen est né d'un père danois et d’une mère française. Il vit, en compagnie de ses parents et de sa sœur, une jeunesse de globe-trotter, avant d'atterrir finalement à Rørvig, au bord de la mer Cattégat, dans le Danemark septentrional. Victor Dixen découvre alors les auteurs scandinaves, dont Hans Christian Andersen et Tove Jansson. Enfant, il connaît une expérience extrême au Tivoli, le parc d'attractions de Copenhague : s’embarquant subrepticement sur les montagnes russes, il effectue le tour complet à quatorze reprises. Sujet à d’étranges insomnies depuis cet incident, il consacre l'essentiel de ses nuits à l'écriture,. 
 </t>
         </is>
       </c>
@@ -544,42 +557,339 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Débuts</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il commence à écrire des livres destiné aux adolescents et aux adultes à partir de 2009. 
+Il s'exprime en 2016 dans une interview à France Culture, portant sur le succès des romans adolescents : « Beaucoup d'auteurs passent du roman adulte au roman jeune adulte parce qu'ils retrouvent une forme de liberté. Le problème avec la littérature française c'est qu'elle est tellement obsédée par le style qu'elle en oublie l'histoire. Les jeunes ont besoin d'être emportés par une histoire et des personnages dès la première page et jusqu'à la fin d'un livre. »
+Victor Dixen a remporté deux fois le grand prix de l'Imaginaire, catégorie « jeunesse francophone » : en 2010 pour le premier tome de la tétralogie Le Cas Jack Spark, et en 2014 pour le premier tome de la série Animale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Victor_Dixen</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victor_Dixen</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Série Le Cas Jack Spark
-Été mutant, Jean-Claude Gawsewitch, 2009Réédition au format poche, Gallimard Jeunesse, coll. « Pôle fiction », 2011
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Le Cas Jack Spark</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Été mutant, Jean-Claude Gawsewitch, 2009Réédition au format poche, Gallimard Jeunesse, coll. « Pôle fiction », 2011
 Automne traqué, Jean-Claude Gawsewitch, 2010Réédition au format poche, Gallimard Jeunesse, coll. « Pôle fiction », 2012
 Hiver nucléaire, Jean-Claude Gawsewitch, 2011Réédition au format poche, Gallimard Jeunesse, coll. « Pôle fiction », 2015
-Printemps humain, Jean-Claude Gawsewitch, 2012
-Série Animale
-La Malédiction de Boucle d'or, Gallimard Jeunesse, 2013
-La Prophétie de la Reine des neiges, Gallimard Jeunesse, 2015
-Série Phobos
-Phobos, Robert Laffont, 2015Réédition collector illustrée, Robert Laffont, 2018
+Printemps humain, Jean-Claude Gawsewitch, 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Victor_Dixen</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victor_Dixen</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Animale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Malédiction de Boucle d'or, Gallimard Jeunesse, 2013
+La Prophétie de la Reine des neiges, Gallimard Jeunesse, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Victor_Dixen</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victor_Dixen</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Phobos</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Phobos, Robert Laffont, 2015Réédition collector illustrée, Robert Laffont, 2018
 Phobos², Robert Laffont, 2015
 Phobos - Origines, Robert Laffont, 2016
 Phobos³, Robert Laffont, 2016
-Phobos⁴, Robert Laffont, 2017
-Univers Vampyria
-Série Vampyria
-La Cour des ténèbres, Robert Laffont, coll. « R », 2020, 512 p.  (ISBN 978-2-221-25057-0)Réédition collector avec une nouvelle inédite, Robert Laffont, 2023, 548 p.  (ISBN 978-2-221-27181-0) ; réédition au format poche, Pocket, coll. « Pocket Science-fiction » no 7383, 2024, 576 p.  (ISBN 978-2-266-34470-8)
+Phobos⁴, Robert Laffont, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Victor_Dixen</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victor_Dixen</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Univers Vampyria</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Vampyria</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La Cour des ténèbres, Robert Laffont, coll. « R », 2020, 512 p.  (ISBN 978-2-221-25057-0)Réédition collector avec une nouvelle inédite, Robert Laffont, 2023, 548 p.  (ISBN 978-2-221-27181-0) ; réédition au format poche, Pocket, coll. « Pocket Science-fiction » no 7383, 2024, 576 p.  (ISBN 978-2-266-34470-8)
 La Cour des miracles, Robert Laffont, coll. « R », 2021, 528 p.  (ISBN 978-2-221-25068-6)Réédition collector avec une nouvelle inédite, Robert Laffont, 2023, 542 p.  (ISBN 978-2-221-27192-6)
-La Cour des ouragans, Robert Laffont, coll. « R », 2022, 608 p.  (ISBN 978-2-221-25069-3)Réédition collector avec une nouvelle inédite, Robert Laffont, 2023, 640 p.  (ISBN 978-2-221-27193-3)
-Série Vampyria America
-Le Tombeau des immortels, Robert Laffont, coll. « R », 2023, 592 p.  (ISBN 978-2-221-26840-7)Édition collector
-Le Tombeau des étoiles, Robert Laffont, coll. « R », 2024, 528 p.  (ISBN 978-2-221-26841-4)Réédition collector avec une nouvelle inédite, Robert Laffont, 2024, 560 p.  (ISBN 978-2-221-27625-9)
-Bande dessinée Vampyria Inquisition
-L'Inquisiteur et son ombre[4], Soleil, 2022, 64 p.  (ISBN 978-2-302-09538-0)
-Les Vendanges pourpres, Soleil, 2023, 64 p.  (ISBN 978-2-302-09927-2)
-Jeux
-Le Tarot Interdit, 404, 2021, 86 p.  (ISBN 979-1032405017)Le Tarot a été retiré du marché pour des erreurs d'impression et a été réédité en 2022
-Le Tarot Interdit (Nouvelle édition), 404, coll. « Pop Culture », 2022, 88 p.  (ISBN 979-10-324-0594-9)En collaboration avec Emmanuelle Iger, illustré par Nicolas Jamonneau[4]
-Vampyria Courtisans, 404, coll. « Jeux De Société », 2023, 24 p.  (ISBN 979-1032407158)Illustré par Nicolas Jamonneau et Olivier Derouetteau
-Romans indépendants
-Versailles académie, Je bouquine no 327, 2011
+La Cour des ouragans, Robert Laffont, coll. « R », 2022, 608 p.  (ISBN 978-2-221-25069-3)Réédition collector avec une nouvelle inédite, Robert Laffont, 2023, 640 p.  (ISBN 978-2-221-27193-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Victor_Dixen</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victor_Dixen</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Univers Vampyria</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série Vampyria America</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le Tombeau des immortels, Robert Laffont, coll. « R », 2023, 592 p.  (ISBN 978-2-221-26840-7)Édition collector
+Le Tombeau des étoiles, Robert Laffont, coll. « R », 2024, 528 p.  (ISBN 978-2-221-26841-4)Réédition collector avec une nouvelle inédite, Robert Laffont, 2024, 560 p.  (ISBN 978-2-221-27625-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Victor_Dixen</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victor_Dixen</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Univers Vampyria</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Bande dessinée Vampyria Inquisition</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>L'Inquisiteur et son ombre, Soleil, 2022, 64 p.  (ISBN 978-2-302-09538-0)
+Les Vendanges pourpres, Soleil, 2023, 64 p.  (ISBN 978-2-302-09927-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Victor_Dixen</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victor_Dixen</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Univers Vampyria</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Jeux</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Le Tarot Interdit, 404, 2021, 86 p.  (ISBN 979-1032405017)Le Tarot a été retiré du marché pour des erreurs d'impression et a été réédité en 2022
+Le Tarot Interdit (Nouvelle édition), 404, coll. « Pop Culture », 2022, 88 p.  (ISBN 979-10-324-0594-9)En collaboration avec Emmanuelle Iger, illustré par Nicolas Jamonneau
+Vampyria Courtisans, 404, coll. « Jeux De Société », 2023, 24 p.  (ISBN 979-1032407158)Illustré par Nicolas Jamonneau et Olivier Derouetteau</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Victor_Dixen</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victor_Dixen</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Versailles académie, Je bouquine no 327, 2011
 La Créature, Je bouquine no 361, 2014
 Tambours dans la nuit, Griffe d'Encre, 2014
 Rêvolution, Je bouquine no 388, 2016
@@ -588,38 +898,40 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Victor_Dixen</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Victor_Dixen</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Victor_Dixen</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victor_Dixen</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Grand prix de l'Imaginaire Jeunesse Francophone, 2010, pour Été mutant
 Grand prix de l'Imaginaire Jeunesse Francophone, 2014, pour La Malédiction de Boucle d'or
 Prix du roman jeunesse 24heures/Le livre sur les quais, Morges (Suisse), 2016, pour La Prophétie de la Reine des neiges
 Prix Imaginales des collégiens, 2016, pour Phobos
 Prix Chimères, 2016, pour Phobos
-Prix Imaginales des lycéens, 2020, pour Cogito[5]</t>
+Prix Imaginales des lycéens, 2020, pour Cogito</t>
         </is>
       </c>
     </row>
